--- a/doc/学生账号导入模板.xlsx
+++ b/doc/学生账号导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupeng/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupeng/git/remoteLaboratory/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,13 +37,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <rPh sb="0" eb="1">
-      <t>xing'm</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <rPh sb="0" eb="1">
       <t>zhang'san</t>
@@ -79,31 +72,6 @@
     <t>籍贯</t>
     <rPh sb="0" eb="1">
       <t>ji'guan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学院</t>
-    <rPh sb="0" eb="1">
-      <t>xue'yuan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan'ye</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班</t>
-    <rPh sb="0" eb="1">
-      <t>ban</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -182,6 +150,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码(不填默认为学号)</t>
+    <rPh sb="0" eb="1">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo'r</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xue'h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号(不填默认为学号)</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -200,28 +198,112 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>账号</t>
+      <t>学院</t>
     </r>
     <rPh sb="1" eb="2">
-      <t>zhang'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码(不填为123456)</t>
-    <rPh sb="0" eb="1">
-      <t>mi'ma</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bu'tian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
+      <t>xue'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>xing'm</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专业</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>zhuan'ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年级</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>班</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ban</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,14 +704,14 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.1640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" style="1" customWidth="1"/>
     <col min="6" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
@@ -639,40 +721,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -680,34 +762,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L2" s="4">
         <v>2</v>
